--- a/output/KINEA_21624757000126.xlsx
+++ b/output/KINEA_21624757000126.xlsx
@@ -1120,10 +1120,10 @@
         <v>44165</v>
       </c>
       <c r="B67">
-        <v>0.8016087999999999</v>
+        <v>0.7992254999999999</v>
       </c>
       <c r="C67">
-        <v>0.01689122810859645</v>
+        <v>0.01554600995471578</v>
       </c>
     </row>
   </sheetData>

--- a/output/KINEA_21624757000126.xlsx
+++ b/output/KINEA_21624757000126.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KINEA CHRONOS FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,744 +383,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42185</v>
       </c>
       <c r="B2">
-        <v>0.01113340000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42216</v>
       </c>
       <c r="B3">
-        <v>0.04169149999999999</v>
-      </c>
-      <c r="C3">
         <v>0.03022163049900239</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42247</v>
       </c>
       <c r="B4">
-        <v>0.03175430000000001</v>
-      </c>
-      <c r="C4">
         <v>-0.009539484578687585</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42277</v>
       </c>
       <c r="B5">
-        <v>0.0387249999999999</v>
-      </c>
-      <c r="C5">
         <v>0.006756162780227726</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42308</v>
       </c>
       <c r="B6">
-        <v>0.04192320000000005</v>
-      </c>
-      <c r="C6">
         <v>0.00307896700281618</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42338</v>
       </c>
       <c r="B7">
-        <v>0.04807910000000004</v>
-      </c>
-      <c r="C7">
         <v>0.005908208973559592</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42369</v>
       </c>
       <c r="B8">
-        <v>0.04265040000000009</v>
-      </c>
-      <c r="C8">
         <v>-0.005179666305720532</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42400</v>
       </c>
       <c r="B9">
-        <v>0.06464650000000005</v>
-      </c>
-      <c r="C9">
         <v>0.02109633296069324</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42429</v>
       </c>
       <c r="B10">
-        <v>0.0875804</v>
-      </c>
-      <c r="C10">
         <v>0.0215413285066921</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42460</v>
       </c>
       <c r="B11">
-        <v>0.1212419</v>
-      </c>
-      <c r="C11">
         <v>0.03095081522248844</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42490</v>
       </c>
       <c r="B12">
-        <v>0.1731463</v>
-      </c>
-      <c r="C12">
         <v>0.04629188402609641</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42521</v>
       </c>
       <c r="B13">
-        <v>0.1823745999999999</v>
-      </c>
-      <c r="C13">
         <v>0.007866282321309814</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42551</v>
       </c>
       <c r="B14">
-        <v>0.2026437999999999</v>
-      </c>
-      <c r="C14">
         <v>0.01714279044898293</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42582</v>
       </c>
       <c r="B15">
-        <v>0.2365455000000001</v>
-      </c>
-      <c r="C15">
         <v>0.02818931091649923</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42613</v>
       </c>
       <c r="B16">
-        <v>0.2510796</v>
-      </c>
-      <c r="C16">
         <v>0.01175379312770941</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42643</v>
       </c>
       <c r="B17">
-        <v>0.2680674999999999</v>
-      </c>
-      <c r="C17">
         <v>0.01357859244128035</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42674</v>
       </c>
       <c r="B18">
-        <v>0.2817723999999999</v>
-      </c>
-      <c r="C18">
         <v>0.0108077054257758</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42704</v>
       </c>
       <c r="B19">
-        <v>0.2953391000000001</v>
-      </c>
-      <c r="C19">
         <v>0.01058432838778556</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42735</v>
       </c>
       <c r="B20">
-        <v>0.3191329999999999</v>
-      </c>
-      <c r="C20">
         <v>0.01836885800791443</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42766</v>
       </c>
       <c r="B21">
-        <v>0.3395889999999999</v>
-      </c>
-      <c r="C21">
         <v>0.01550715507837341</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42794</v>
       </c>
       <c r="B22">
-        <v>0.3633793000000001</v>
-      </c>
-      <c r="C22">
         <v>0.01775940232414586</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42825</v>
       </c>
       <c r="B23">
-        <v>0.3757721000000001</v>
-      </c>
-      <c r="C23">
         <v>0.009089766875586269</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42855</v>
       </c>
       <c r="B24">
-        <v>0.3927289</v>
-      </c>
-      <c r="C24">
         <v>0.01232529719130082</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42886</v>
       </c>
       <c r="B25">
-        <v>0.3884099000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.00310110603721947</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42916</v>
       </c>
       <c r="B26">
-        <v>0.4001882999999999</v>
-      </c>
-      <c r="C26">
         <v>0.008483373678046968</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42947</v>
       </c>
       <c r="B27">
-        <v>0.4397673</v>
-      </c>
-      <c r="C27">
         <v>0.02826691238599843</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42978</v>
       </c>
       <c r="B28">
-        <v>0.4551463</v>
-      </c>
-      <c r="C28">
         <v>0.01068158722593582</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43008</v>
       </c>
       <c r="B29">
-        <v>0.4798123999999999</v>
-      </c>
-      <c r="C29">
         <v>0.01695094163384114</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43039</v>
       </c>
       <c r="B30">
-        <v>0.4850022</v>
-      </c>
-      <c r="C30">
         <v>0.003507066165954642</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43069</v>
       </c>
       <c r="B31">
-        <v>0.4880568000000001</v>
-      </c>
-      <c r="C31">
         <v>0.002056966649611747</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43100</v>
       </c>
       <c r="B32">
-        <v>0.4960081999999999</v>
-      </c>
-      <c r="C32">
         <v>0.00534347882419528</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43131</v>
       </c>
       <c r="B33">
-        <v>0.5158821</v>
-      </c>
-      <c r="C33">
         <v>0.01328461969660344</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43159</v>
       </c>
       <c r="B34">
-        <v>0.530459</v>
-      </c>
-      <c r="C34">
         <v>0.00961611724289102</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43190</v>
       </c>
       <c r="B35">
-        <v>0.5513326000000001</v>
-      </c>
-      <c r="C35">
         <v>0.01363878418173892</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43220</v>
       </c>
       <c r="B36">
-        <v>0.5709447999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01264216326015433</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43251</v>
       </c>
       <c r="B37">
-        <v>0.5621373999999999</v>
-      </c>
-      <c r="C37">
         <v>-0.005606435057425307</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43281</v>
       </c>
       <c r="B38">
-        <v>0.5728177000000001</v>
-      </c>
-      <c r="C38">
         <v>0.006836978616605816</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43312</v>
       </c>
       <c r="B39">
-        <v>0.5897893999999999</v>
-      </c>
-      <c r="C39">
         <v>0.01079063390499724</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43343</v>
       </c>
       <c r="B40">
-        <v>0.5837269</v>
-      </c>
-      <c r="C40">
         <v>-0.003813398177142102</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43373</v>
       </c>
       <c r="B41">
-        <v>0.5873693</v>
-      </c>
-      <c r="C41">
         <v>0.002299891477501648</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43404</v>
       </c>
       <c r="B42">
-        <v>0.6196762</v>
-      </c>
-      <c r="C42">
         <v>0.02035247878360757</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43434</v>
       </c>
       <c r="B43">
-        <v>0.6240382</v>
-      </c>
-      <c r="C43">
         <v>0.002693130886284534</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43465</v>
       </c>
       <c r="B44">
-        <v>0.6403148999999999</v>
-      </c>
-      <c r="C44">
         <v>0.01002236277447155</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43496</v>
       </c>
       <c r="B45">
-        <v>0.6699229</v>
-      </c>
-      <c r="C45">
         <v>0.01805019267946673</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43524</v>
       </c>
       <c r="B46">
-        <v>0.6693290000000001</v>
-      </c>
-      <c r="C46">
         <v>-0.0003556451618215162</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43555</v>
       </c>
       <c r="B47">
-        <v>0.6688692000000001</v>
-      </c>
-      <c r="C47">
         <v>-0.0002754400121246503</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43585</v>
       </c>
       <c r="B48">
-        <v>0.6721454</v>
-      </c>
-      <c r="C48">
         <v>0.001963125690138012</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43616</v>
       </c>
       <c r="B49">
-        <v>0.6876004</v>
-      </c>
-      <c r="C49">
         <v>0.009242617298711009</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43646</v>
       </c>
       <c r="B50">
-        <v>0.7108178999999999</v>
-      </c>
-      <c r="C50">
         <v>0.01375769998632381</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43677</v>
       </c>
       <c r="B51">
-        <v>0.7281998999999999</v>
-      </c>
-      <c r="C51">
         <v>0.01016005268591114</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43708</v>
       </c>
       <c r="B52">
-        <v>0.7367676999999999</v>
-      </c>
-      <c r="C52">
         <v>0.004957644078095402</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43738</v>
       </c>
       <c r="B53">
-        <v>0.7436488999999999</v>
-      </c>
-      <c r="C53">
         <v>0.003962072763098901</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43769</v>
       </c>
       <c r="B54">
-        <v>0.7709457</v>
-      </c>
-      <c r="C54">
         <v>0.01565498650559749</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43799</v>
       </c>
       <c r="B55">
-        <v>0.7648908999999999</v>
-      </c>
-      <c r="C55">
         <v>-0.003418964229112142</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43830</v>
       </c>
       <c r="B56">
-        <v>0.7986911999999999</v>
-      </c>
-      <c r="C56">
         <v>0.01915149542671446</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43861</v>
       </c>
       <c r="B57">
-        <v>0.8086035</v>
-      </c>
-      <c r="C57">
         <v>0.005510840326566457</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43890</v>
       </c>
       <c r="B58">
-        <v>0.7806913</v>
-      </c>
-      <c r="C58">
         <v>-0.01543301226609373</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43921</v>
       </c>
       <c r="B59">
-        <v>0.7223098999999999</v>
-      </c>
-      <c r="C59">
         <v>-0.03278580627647254</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43951</v>
       </c>
       <c r="B60">
-        <v>0.7419178</v>
-      </c>
-      <c r="C60">
         <v>0.01138465266906952</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43982</v>
       </c>
       <c r="B61">
-        <v>0.753625</v>
-      </c>
-      <c r="C61">
         <v>0.006720868229258548</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>44012</v>
       </c>
       <c r="B62">
-        <v>0.7678328000000001</v>
-      </c>
-      <c r="C62">
         <v>0.008101960225247673</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44043</v>
       </c>
       <c r="B63">
-        <v>0.7887483</v>
-      </c>
-      <c r="C63">
         <v>0.01183115281037872</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44074</v>
       </c>
       <c r="B64">
-        <v>0.7907074000000001</v>
-      </c>
-      <c r="C64">
         <v>0.001095235142920981</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44104</v>
       </c>
       <c r="B65">
-        <v>0.7755707000000001</v>
-      </c>
-      <c r="C65">
         <v>-0.008452916428446144</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44135</v>
       </c>
       <c r="B66">
-        <v>0.7716829000000001</v>
-      </c>
-      <c r="C66">
         <v>-0.002189605854613363</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44165</v>
       </c>
       <c r="B67">
-        <v>0.7992254999999999</v>
-      </c>
-      <c r="C67">
-        <v>0.01554600995471578</v>
+        <v>0.01284722000759841</v>
       </c>
     </row>
   </sheetData>
